--- a/pred_ohlcv/54_21/2019-10-19 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>43289.8193</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42887.39309999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>46778.9627</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>55772.51319999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>49251.7377</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>48845.3992</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>46317.57199999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>61237.29239999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-7739.232600000003</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-12998.9923</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-12888.9923</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-84414.28760000001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-86767.28750000001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-31395.43200000001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-25583.16370000002</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-219277.4308</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-221631.5275</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-220970.7607</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-227025.1911999999</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-231706.9758999999</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-229955.5822999999</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-236997.7674999999</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-244897.4304999999</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-244887.4304999999</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-261887.4304999999</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-312539.9328</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>43289.8193</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>42887.39309999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>50109.6419</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>46778.9627</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>56678.9627</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>55772.51319999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>49251.7377</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>48845.3992</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>46317.57199999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>61237.29239999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-12998.9923</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-12888.9923</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-55103.0971</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-141364.4335</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-86704.28760000001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-31580.24570000001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-31565.43200000001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-41799.58440000001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-18533.64740000002</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-25583.16370000002</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-26930.52370000002</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-30001.16870000002</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-219277.4308</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-221631.5275</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-220970.7607</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-236997.7674999999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-236987.7674999999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-237897.4304999999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-244897.4304999999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-244887.4304999999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-261887.4304999999</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-312539.9328</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
